--- a/01_Documents/Measurmnets25082024.xlsx
+++ b/01_Documents/Measurmnets25082024.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Vin</t>
   </si>
@@ -43,6 +43,33 @@
   </si>
   <si>
     <t>Wert</t>
+  </si>
+  <si>
+    <t>By Alex 26082024</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>0.3036</t>
+  </si>
+  <si>
+    <t>0.2656</t>
+  </si>
+  <si>
+    <t>1V = 0,038</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>0.4046</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>0.4426</t>
   </si>
 </sst>
 </file>
@@ -372,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +449,46 @@
         <v>135</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
